--- a/src/main/java/com/qa/datautitlities/LoginData.xlsx
+++ b/src/main/java/com/qa/datautitlities/LoginData.xlsx
@@ -4,12 +4,13 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="5" rupBuild="4505"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="10965" windowHeight="7245" tabRatio="199"/>
+    <workbookView xWindow="0" yWindow="2520" windowWidth="12525" windowHeight="3585" tabRatio="199"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="124519"/>
+  <oleSize ref="A1"/>
 </workbook>
 </file>
 
